--- a/data/rna_seq/NCBI_upload/McapLarval_Tolerance_MIMS.me.host-associated.5.0.xlsx
+++ b/data/rna_seq/NCBI_upload/McapLarval_Tolerance_MIMS.me.host-associated.5.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/larval_symbiont_TPC/data/rna_seq/NCBI_upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A412C3-A974-AC49-BE19-5447FDE64D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D2114-89A9-994E-A947-530A0D80D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30220" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="200">
   <si>
     <r>
       <rPr>
@@ -1445,51 +1445,6 @@
   </si>
   <si>
     <t>R108</t>
-  </si>
-  <si>
-    <t>PRJNA1078314</t>
-  </si>
-  <si>
-    <t>PRJNA1078315</t>
-  </si>
-  <si>
-    <t>PRJNA1078316</t>
-  </si>
-  <si>
-    <t>PRJNA1078317</t>
-  </si>
-  <si>
-    <t>PRJNA1078318</t>
-  </si>
-  <si>
-    <t>PRJNA1078319</t>
-  </si>
-  <si>
-    <t>PRJNA1078320</t>
-  </si>
-  <si>
-    <t>PRJNA1078321</t>
-  </si>
-  <si>
-    <t>PRJNA1078322</t>
-  </si>
-  <si>
-    <t>PRJNA1078323</t>
-  </si>
-  <si>
-    <t>PRJNA1078324</t>
-  </si>
-  <si>
-    <t>PRJNA1078325</t>
-  </si>
-  <si>
-    <t>PRJNA1078326</t>
-  </si>
-  <si>
-    <t>PRJNA1078327</t>
-  </si>
-  <si>
-    <t>PRJNA1078328</t>
   </si>
   <si>
     <t>50</t>
@@ -2161,10 +2116,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+      <selection pane="topRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2475,7 +2430,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>80</v>
@@ -2484,7 +2439,7 @@
         <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>74</v>
@@ -2505,25 +2460,25 @@
         <v>81</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI13" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH13" s="10" t="s">
         <v>83</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ13" s="1" t="s">
         <v>82</v>
@@ -2534,7 +2489,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>80</v>
@@ -2543,7 +2498,7 @@
         <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>74</v>
@@ -2564,25 +2519,25 @@
         <v>81</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI14" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH14" s="10" t="s">
         <v>84</v>
       </c>
       <c r="BI14" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ14" s="1" t="s">
         <v>82</v>
@@ -2593,7 +2548,7 @@
         <v>85</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>80</v>
@@ -2602,7 +2557,7 @@
         <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>74</v>
@@ -2623,25 +2578,25 @@
         <v>81</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI15" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP15" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH15" s="10" t="s">
         <v>85</v>
       </c>
       <c r="BI15" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ15" s="1" t="s">
         <v>82</v>
@@ -2652,7 +2607,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>80</v>
@@ -2661,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>74</v>
@@ -2682,25 +2637,25 @@
         <v>81</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI16" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP16" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH16" s="10" t="s">
         <v>86</v>
       </c>
       <c r="BI16" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ16" s="1" t="s">
         <v>82</v>
@@ -2711,7 +2666,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>80</v>
@@ -2720,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>74</v>
@@ -2741,25 +2696,25 @@
         <v>81</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI17" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP17" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU17" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH17" s="10" t="s">
         <v>87</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ17" s="1" t="s">
         <v>82</v>
@@ -2770,7 +2725,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>80</v>
@@ -2779,7 +2734,7 @@
         <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>74</v>
@@ -2800,25 +2755,25 @@
         <v>81</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI18" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH18" s="10" t="s">
         <v>88</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ18" s="1" t="s">
         <v>82</v>
@@ -2829,7 +2784,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>80</v>
@@ -2838,7 +2793,7 @@
         <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>74</v>
@@ -2859,25 +2814,25 @@
         <v>81</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI19" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH19" s="10" t="s">
         <v>89</v>
       </c>
       <c r="BI19" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ19" s="1" t="s">
         <v>82</v>
@@ -2888,7 +2843,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>80</v>
@@ -2897,7 +2852,7 @@
         <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>74</v>
@@ -2918,25 +2873,25 @@
         <v>81</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI20" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH20" s="10" t="s">
         <v>90</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ20" s="1" t="s">
         <v>82</v>
@@ -2947,7 +2902,7 @@
         <v>91</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>80</v>
@@ -2956,7 +2911,7 @@
         <v>78</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>74</v>
@@ -2977,25 +2932,25 @@
         <v>81</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI21" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP21" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH21" s="10" t="s">
         <v>91</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ21" s="1" t="s">
         <v>82</v>
@@ -3006,7 +2961,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>80</v>
@@ -3015,7 +2970,7 @@
         <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>74</v>
@@ -3036,25 +2991,25 @@
         <v>81</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI22" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH22" s="10" t="s">
         <v>92</v>
       </c>
       <c r="BI22" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ22" s="1" t="s">
         <v>82</v>
@@ -3065,7 +3020,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>80</v>
@@ -3074,7 +3029,7 @@
         <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>74</v>
@@ -3095,25 +3050,25 @@
         <v>81</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI23" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH23" s="10" t="s">
         <v>93</v>
       </c>
       <c r="BI23" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ23" s="1" t="s">
         <v>82</v>
@@ -3124,7 +3079,7 @@
         <v>94</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>80</v>
@@ -3133,7 +3088,7 @@
         <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>74</v>
@@ -3154,25 +3109,25 @@
         <v>81</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI24" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU24" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH24" s="10" t="s">
         <v>94</v>
       </c>
       <c r="BI24" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ24" s="1" t="s">
         <v>82</v>
@@ -3183,7 +3138,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>80</v>
@@ -3192,7 +3147,7 @@
         <v>78</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>74</v>
@@ -3213,25 +3168,25 @@
         <v>81</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI25" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH25" s="8" t="s">
         <v>95</v>
       </c>
       <c r="BI25" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ25" s="1" t="s">
         <v>82</v>
@@ -3242,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>80</v>
@@ -3251,7 +3206,7 @@
         <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>74</v>
@@ -3272,25 +3227,25 @@
         <v>81</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI26" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH26" s="8" t="s">
         <v>96</v>
       </c>
       <c r="BI26" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ26" s="1" t="s">
         <v>82</v>
@@ -3301,7 +3256,7 @@
         <v>97</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>80</v>
@@ -3310,7 +3265,7 @@
         <v>78</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>74</v>
@@ -3331,25 +3286,25 @@
         <v>81</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI27" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH27" s="8" t="s">
         <v>97</v>
       </c>
       <c r="BI27" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ27" s="1" t="s">
         <v>82</v>
@@ -3360,7 +3315,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>80</v>
@@ -3369,7 +3324,7 @@
         <v>78</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>74</v>
@@ -3390,25 +3345,25 @@
         <v>81</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI28" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH28" s="8" t="s">
         <v>98</v>
       </c>
       <c r="BI28" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ28" s="1" t="s">
         <v>82</v>
@@ -3419,7 +3374,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>80</v>
@@ -3428,7 +3383,7 @@
         <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>74</v>
@@ -3449,25 +3404,25 @@
         <v>81</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI29" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP29" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH29" s="8" t="s">
         <v>99</v>
       </c>
       <c r="BI29" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ29" s="1" t="s">
         <v>82</v>
@@ -3478,7 +3433,7 @@
         <v>100</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -3487,7 +3442,7 @@
         <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>74</v>
@@ -3508,25 +3463,25 @@
         <v>81</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI30" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU30" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH30" s="8" t="s">
         <v>100</v>
       </c>
       <c r="BI30" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="BJ30" s="1" t="s">
         <v>82</v>
@@ -3537,7 +3492,7 @@
         <v>101</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>80</v>
@@ -3546,7 +3501,7 @@
         <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>74</v>
@@ -3567,25 +3522,25 @@
         <v>81</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI31" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP31" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH31" s="8" t="s">
         <v>101</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ31" s="1" t="s">
         <v>82</v>
@@ -3596,7 +3551,7 @@
         <v>102</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>80</v>
@@ -3605,7 +3560,7 @@
         <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>74</v>
@@ -3626,25 +3581,25 @@
         <v>81</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI32" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP32" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH32" s="8" t="s">
         <v>102</v>
       </c>
       <c r="BI32" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ32" s="1" t="s">
         <v>82</v>
@@ -3655,7 +3610,7 @@
         <v>103</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>80</v>
@@ -3664,7 +3619,7 @@
         <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>74</v>
@@ -3685,25 +3640,25 @@
         <v>81</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI33" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP33" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH33" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BI33" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ33" s="1" t="s">
         <v>82</v>
@@ -3714,7 +3669,7 @@
         <v>104</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>80</v>
@@ -3723,7 +3678,7 @@
         <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>74</v>
@@ -3744,25 +3699,25 @@
         <v>81</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI34" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP34" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU34" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH34" s="8" t="s">
         <v>104</v>
       </c>
       <c r="BI34" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ34" s="1" t="s">
         <v>82</v>
@@ -3773,7 +3728,7 @@
         <v>105</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>80</v>
@@ -3782,7 +3737,7 @@
         <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>74</v>
@@ -3803,25 +3758,25 @@
         <v>81</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI35" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ35" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP35" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU35" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH35" s="8" t="s">
         <v>105</v>
       </c>
       <c r="BI35" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ35" s="1" t="s">
         <v>82</v>
@@ -3832,7 +3787,7 @@
         <v>106</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>80</v>
@@ -3841,7 +3796,7 @@
         <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>74</v>
@@ -3862,25 +3817,25 @@
         <v>81</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI36" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP36" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU36" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH36" s="8" t="s">
         <v>106</v>
       </c>
       <c r="BI36" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ36" s="1" t="s">
         <v>82</v>
@@ -3891,7 +3846,7 @@
         <v>107</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>80</v>
@@ -3900,7 +3855,7 @@
         <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>74</v>
@@ -3921,25 +3876,25 @@
         <v>81</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI37" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH37" s="8" t="s">
         <v>107</v>
       </c>
       <c r="BI37" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ37" s="1" t="s">
         <v>82</v>
@@ -3950,7 +3905,7 @@
         <v>108</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>80</v>
@@ -3959,7 +3914,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>74</v>
@@ -3980,25 +3935,25 @@
         <v>81</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI38" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP38" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU38" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH38" s="8" t="s">
         <v>108</v>
       </c>
       <c r="BI38" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ38" s="1" t="s">
         <v>82</v>
@@ -4009,7 +3964,7 @@
         <v>109</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>80</v>
@@ -4018,7 +3973,7 @@
         <v>78</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>74</v>
@@ -4039,25 +3994,25 @@
         <v>81</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI39" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP39" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH39" s="8" t="s">
         <v>109</v>
       </c>
       <c r="BI39" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ39" s="1" t="s">
         <v>82</v>
@@ -4068,7 +4023,7 @@
         <v>110</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>80</v>
@@ -4077,7 +4032,7 @@
         <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>74</v>
@@ -4098,25 +4053,25 @@
         <v>81</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI40" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ40" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU40" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH40" s="8" t="s">
         <v>110</v>
       </c>
       <c r="BI40" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ40" s="1" t="s">
         <v>82</v>
@@ -4127,7 +4082,7 @@
         <v>111</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>80</v>
@@ -4136,7 +4091,7 @@
         <v>78</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>74</v>
@@ -4157,25 +4112,25 @@
         <v>81</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI41" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ41" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP41" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU41" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH41" s="8" t="s">
         <v>111</v>
       </c>
       <c r="BI41" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ41" s="1" t="s">
         <v>82</v>
@@ -4186,7 +4141,7 @@
         <v>112</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>80</v>
@@ -4195,7 +4150,7 @@
         <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>74</v>
@@ -4216,25 +4171,25 @@
         <v>81</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI42" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ42" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP42" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH42" s="8" t="s">
         <v>112</v>
       </c>
       <c r="BI42" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ42" s="1" t="s">
         <v>82</v>
@@ -4245,7 +4200,7 @@
         <v>113</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>80</v>
@@ -4254,7 +4209,7 @@
         <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>74</v>
@@ -4275,25 +4230,25 @@
         <v>81</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI43" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ43" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP43" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU43" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH43" s="8" t="s">
         <v>113</v>
       </c>
       <c r="BI43" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ43" s="1" t="s">
         <v>82</v>
@@ -4304,7 +4259,7 @@
         <v>114</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>80</v>
@@ -4313,7 +4268,7 @@
         <v>78</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>74</v>
@@ -4334,25 +4289,25 @@
         <v>81</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI44" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ44" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP44" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH44" s="8" t="s">
         <v>114</v>
       </c>
       <c r="BI44" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ44" s="1" t="s">
         <v>82</v>
@@ -4363,7 +4318,7 @@
         <v>115</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>80</v>
@@ -4372,7 +4327,7 @@
         <v>78</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>74</v>
@@ -4393,25 +4348,25 @@
         <v>81</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI45" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ45" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP45" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH45" s="8" t="s">
         <v>115</v>
       </c>
       <c r="BI45" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ45" s="1" t="s">
         <v>82</v>
@@ -4422,7 +4377,7 @@
         <v>116</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>80</v>
@@ -4431,7 +4386,7 @@
         <v>78</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>74</v>
@@ -4452,25 +4407,25 @@
         <v>81</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI46" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ46" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP46" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU46" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH46" s="8" t="s">
         <v>116</v>
       </c>
       <c r="BI46" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ46" s="1" t="s">
         <v>82</v>
@@ -4481,7 +4436,7 @@
         <v>117</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>80</v>
@@ -4490,7 +4445,7 @@
         <v>78</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>74</v>
@@ -4511,25 +4466,25 @@
         <v>81</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI47" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ47" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP47" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU47" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH47" s="8" t="s">
         <v>117</v>
       </c>
       <c r="BI47" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ47" s="1" t="s">
         <v>82</v>
@@ -4540,7 +4495,7 @@
         <v>118</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>80</v>
@@ -4549,7 +4504,7 @@
         <v>78</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>74</v>
@@ -4570,25 +4525,25 @@
         <v>81</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI48" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ48" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP48" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH48" s="8" t="s">
         <v>118</v>
       </c>
       <c r="BI48" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="BJ48" s="1" t="s">
         <v>82</v>
@@ -4599,7 +4554,7 @@
         <v>119</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>80</v>
@@ -4608,7 +4563,7 @@
         <v>78</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>74</v>
@@ -4629,25 +4584,25 @@
         <v>81</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI49" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP49" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU49" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH49" s="8" t="s">
         <v>119</v>
       </c>
       <c r="BI49" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ49" s="1" t="s">
         <v>82</v>
@@ -4658,7 +4613,7 @@
         <v>120</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>80</v>
@@ -4667,7 +4622,7 @@
         <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>74</v>
@@ -4688,25 +4643,25 @@
         <v>81</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI50" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP50" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU50" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH50" s="8" t="s">
         <v>120</v>
       </c>
       <c r="BI50" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ50" s="1" t="s">
         <v>82</v>
@@ -4717,7 +4672,7 @@
         <v>121</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>80</v>
@@ -4726,7 +4681,7 @@
         <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>74</v>
@@ -4747,25 +4702,25 @@
         <v>81</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI51" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ51" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP51" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU51" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH51" s="8" t="s">
         <v>121</v>
       </c>
       <c r="BI51" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ51" s="1" t="s">
         <v>82</v>
@@ -4776,16 +4731,16 @@
         <v>122</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>74</v>
@@ -4806,25 +4761,25 @@
         <v>81</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI52" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ52" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP52" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH52" s="8" t="s">
         <v>122</v>
       </c>
       <c r="BI52" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ52" s="1" t="s">
         <v>82</v>
@@ -4835,16 +4790,16 @@
         <v>123</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>74</v>
@@ -4865,25 +4820,25 @@
         <v>81</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI53" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP53" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH53" s="8" t="s">
         <v>123</v>
       </c>
       <c r="BI53" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ53" s="1" t="s">
         <v>82</v>
@@ -4894,16 +4849,16 @@
         <v>124</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>74</v>
@@ -4924,25 +4879,25 @@
         <v>81</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI54" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ54" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AP54" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH54" s="8" t="s">
         <v>124</v>
       </c>
       <c r="BI54" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ54" s="1" t="s">
         <v>82</v>
@@ -4953,16 +4908,16 @@
         <v>125</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>74</v>
@@ -4983,25 +4938,25 @@
         <v>81</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI55" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ55" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP55" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH55" s="8" t="s">
         <v>125</v>
       </c>
       <c r="BI55" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ55" s="1" t="s">
         <v>82</v>
@@ -5012,16 +4967,16 @@
         <v>126</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>74</v>
@@ -5042,25 +4997,25 @@
         <v>81</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI56" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ56" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP56" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU56" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH56" s="8" t="s">
         <v>126</v>
       </c>
       <c r="BI56" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ56" s="1" t="s">
         <v>82</v>
@@ -5071,16 +5026,16 @@
         <v>127</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>74</v>
@@ -5101,25 +5056,25 @@
         <v>81</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI57" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP57" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH57" s="8" t="s">
         <v>127</v>
       </c>
       <c r="BI57" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ57" s="1" t="s">
         <v>82</v>
@@ -5130,16 +5085,16 @@
         <v>128</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>74</v>
@@ -5160,25 +5115,25 @@
         <v>81</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI58" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP58" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH58" s="8" t="s">
         <v>128</v>
       </c>
       <c r="BI58" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ58" s="1" t="s">
         <v>82</v>
@@ -5189,16 +5144,16 @@
         <v>129</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>74</v>
@@ -5219,25 +5174,25 @@
         <v>81</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI59" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ59" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP59" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU59" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH59" s="8" t="s">
         <v>129</v>
       </c>
       <c r="BI59" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ59" s="1" t="s">
         <v>82</v>
@@ -5248,16 +5203,16 @@
         <v>130</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>74</v>
@@ -5278,25 +5233,25 @@
         <v>81</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI60" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ60" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="AP60" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH60" s="8" t="s">
         <v>130</v>
       </c>
       <c r="BI60" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ60" s="1" t="s">
         <v>82</v>
@@ -5307,16 +5262,16 @@
         <v>131</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>74</v>
@@ -5337,25 +5292,25 @@
         <v>81</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI61" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ61" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP61" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH61" s="8" t="s">
         <v>131</v>
       </c>
       <c r="BI61" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ61" s="1" t="s">
         <v>82</v>
@@ -5366,16 +5321,16 @@
         <v>132</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>74</v>
@@ -5396,25 +5351,25 @@
         <v>81</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI62" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP62" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH62" s="8" t="s">
         <v>132</v>
       </c>
       <c r="BI62" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ62" s="1" t="s">
         <v>82</v>
@@ -5425,16 +5380,16 @@
         <v>133</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>74</v>
@@ -5455,25 +5410,25 @@
         <v>81</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI63" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ63" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP63" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH63" s="8" t="s">
         <v>133</v>
       </c>
       <c r="BI63" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ63" s="1" t="s">
         <v>82</v>
@@ -5484,16 +5439,16 @@
         <v>134</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>74</v>
@@ -5514,25 +5469,25 @@
         <v>81</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI64" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ64" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP64" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH64" s="8" t="s">
         <v>134</v>
       </c>
       <c r="BI64" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ64" s="1" t="s">
         <v>82</v>
@@ -5543,16 +5498,16 @@
         <v>135</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>74</v>
@@ -5573,25 +5528,25 @@
         <v>81</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI65" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ65" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU65" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH65" s="8" t="s">
         <v>135</v>
       </c>
       <c r="BI65" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ65" s="1" t="s">
         <v>82</v>
@@ -5602,16 +5557,16 @@
         <v>136</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>74</v>
@@ -5632,25 +5587,25 @@
         <v>81</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="AI66" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="AP66" s="1" t="s">
         <v>77</v>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="BH66" s="8" t="s">
         <v>136</v>
       </c>
       <c r="BI66" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="BJ66" s="1" t="s">
         <v>82</v>

--- a/data/rna_seq/NCBI_upload/McapLarval_Tolerance_MIMS.me.host-associated.5.0.xlsx
+++ b/data/rna_seq/NCBI_upload/McapLarval_Tolerance_MIMS.me.host-associated.5.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/larval_symbiont_TPC/data/rna_seq/NCBI_upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D2114-89A9-994E-A947-530A0D80D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46326257-733A-BD48-ADEF-D0A43C20978A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30220" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIMS.me.host-associated.5.0" sheetId="1" r:id="rId1"/>
@@ -2116,10 +2116,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BH1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="D49" sqref="D49"/>
+      <selection pane="topRight" activeCell="BJ17" sqref="BJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
